--- a/students.xlsx
+++ b/students.xlsx
@@ -590,8 +590,16 @@
           <t>0231me950_ME_05</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2026-02-07 02:22:32</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -854,8 +862,16 @@
           <t>0231me460_ME_16</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2026-02-07 03:14:09</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">

--- a/students.xlsx
+++ b/students.xlsx
@@ -718,8 +718,16 @@
           <t>0231ai988_AI_10</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2026-02-07 03:36:48</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
